--- a/data/interim/df_rev_mth.xlsx
+++ b/data/interim/df_rev_mth.xlsx
@@ -652,25 +652,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1137.614357450551</v>
+        <v>1255.082315668529</v>
       </c>
       <c r="G5" t="n">
-        <v>1120.964626638216</v>
+        <v>1241.948437476981</v>
       </c>
       <c r="H5" t="n">
-        <v>1.014853038549725</v>
+        <v>1.010575220190485</v>
       </c>
       <c r="I5" t="n">
-        <v>16.64973081233506</v>
+        <v>13.13387819154741</v>
       </c>
       <c r="J5" t="n">
         <v>3733.741967282829</v>
       </c>
       <c r="K5" t="n">
-        <v>-2596.127609832278</v>
+        <v>-2478.6596516143</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.6953152179719502</v>
+        <v>-0.6638540299071887</v>
       </c>
     </row>
     <row r="6">
@@ -830,25 +830,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2315.083262573299</v>
+        <v>2315.0852813633</v>
       </c>
       <c r="G9" t="n">
         <v>2403.339733338087</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9632775718137008</v>
+        <v>0.9632784118073033</v>
       </c>
       <c r="I9" t="n">
-        <v>-88.25647076478754</v>
+        <v>-88.25445197478666</v>
       </c>
       <c r="J9" t="n">
         <v>6582.670122484918</v>
       </c>
       <c r="K9" t="n">
-        <v>-4267.586859911619</v>
+        <v>-4267.584841121618</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.6483063529698236</v>
+        <v>-0.6483060462872824</v>
       </c>
     </row>
     <row r="10">
@@ -1008,25 +1008,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>544.4999791055</v>
+        <v>593.2168819596</v>
       </c>
       <c r="G13" t="n">
-        <v>554.327954223648</v>
+        <v>605.038076624087</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9822704681528962</v>
+        <v>0.980462064915905</v>
       </c>
       <c r="I13" t="n">
-        <v>-9.827975118148061</v>
+        <v>-11.82119466448705</v>
       </c>
       <c r="J13" t="n">
         <v>1610.2809285173</v>
       </c>
       <c r="K13" t="n">
-        <v>-1065.7809494118</v>
+        <v>-1017.0640465577</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.6618602571373309</v>
+        <v>-0.631606590220368</v>
       </c>
     </row>
     <row r="14">
@@ -1186,25 +1186,25 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1027.4624182933</v>
+        <v>1118.0625955091</v>
       </c>
       <c r="G17" t="n">
-        <v>1057.017859621702</v>
+        <v>1153.426922215081</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9720388439425427</v>
+        <v>0.9693397769508743</v>
       </c>
       <c r="I17" t="n">
-        <v>-29.55544132840191</v>
+        <v>-35.36432670598106</v>
       </c>
       <c r="J17" t="n">
         <v>2953.0692293286</v>
       </c>
       <c r="K17" t="n">
-        <v>-1925.6068110353</v>
+        <v>-1835.0066338195</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.6520696473726421</v>
+        <v>-0.6213896428823991</v>
       </c>
     </row>
     <row r="18">
@@ -1364,25 +1364,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>643.7339614126508</v>
+        <v>710.5823365630285</v>
       </c>
       <c r="G21" t="n">
-        <v>618.8584349279997</v>
+        <v>687.620483253333</v>
       </c>
       <c r="H21" t="n">
-        <v>1.040195826833233</v>
+        <v>1.033393207254467</v>
       </c>
       <c r="I21" t="n">
-        <v>24.87552648465112</v>
+        <v>22.96185330969558</v>
       </c>
       <c r="J21" t="n">
         <v>2123.461038765528</v>
       </c>
       <c r="K21" t="n">
-        <v>-1479.727077352878</v>
+        <v>-1412.8787022025</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.6968468223994895</v>
+        <v>-0.6653659645311294</v>
       </c>
     </row>
     <row r="22">
@@ -1542,25 +1542,25 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1287.620844279999</v>
+        <v>1287.62286307</v>
       </c>
       <c r="G25" t="n">
         <v>1346.321873716385</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9563989632922273</v>
+        <v>0.9564004627776329</v>
       </c>
       <c r="I25" t="n">
-        <v>-58.7010294363854</v>
+        <v>-58.69901064638452</v>
       </c>
       <c r="J25" t="n">
         <v>3629.600893156318</v>
       </c>
       <c r="K25" t="n">
-        <v>-2341.980048876319</v>
+        <v>-2341.978030086318</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.6452445097454563</v>
+        <v>-0.6452439535438076</v>
       </c>
     </row>
     <row r="26">
